--- a/fish_diet_2019_2021.xlsx
+++ b/fish_diet_2019_2021.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcav-my.sharepoint.com/personal/jan_kubecka_hbu_cas_cz/Documents/Data/Honza-data/JOBS/1.GRANTAPL/7.Boukal/Candati/Candat.Potrava/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\predator food Lipno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0EC60346-9807-424D-BD6C-D506EDFB78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF33892E-61C5-453F-93DF-43BB1C7D7CEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F18FEC1-DAD6-4144-9705-0E34D149F103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
     <sheet name="matrix" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$A$1:$E$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$E$1:$E$208</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="86">
   <si>
     <t>sp_speciesid</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>standart length (mm)</t>
+  </si>
+  <si>
+    <t>ct_catchid</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -808,50 +811,53 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Celkem" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Kontrolní buňka" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nadpis 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nadpis 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Název" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Neutrální" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Poznámka" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Propojená buňka" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Špatně" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Správně" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Text upozornění" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Vstup" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Výpočet" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Výstup" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Vysvětlující text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -867,7 +873,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1163,11 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1177,9 +1182,10 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1195,8 +1201,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1212,8 +1221,11 @@
       <c r="E2" s="1">
         <v>43702</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="8">
+        <v>560158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1229,8 +1241,11 @@
       <c r="E3" s="1">
         <v>43704</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="8">
+        <v>560102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1246,8 +1261,11 @@
       <c r="E4" s="1">
         <v>43704</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="8">
+        <v>560101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1263,8 +1281,11 @@
       <c r="E5" s="1">
         <v>43704</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="8">
+        <v>560057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1280,8 +1301,11 @@
       <c r="E6" s="1">
         <v>43704</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="8">
+        <v>560060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1297,8 +1321,11 @@
       <c r="E7" s="1">
         <v>43704</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="8">
+        <v>560100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1314,8 +1341,11 @@
       <c r="E8" s="1">
         <v>43704</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="8">
+        <v>561355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1331,509 +1361,599 @@
       <c r="E9" s="1">
         <v>43704</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="8">
+        <v>564161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C10">
-        <v>1790</v>
+        <v>2275</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44070</v>
+      </c>
+      <c r="F10" s="8">
+        <v>710410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="C11">
-        <v>505</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F11" s="8">
+        <v>710422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="C12">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F12" s="8">
+        <v>710476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13">
+        <v>155</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F13" s="8">
+        <v>710482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>165</v>
+      </c>
+      <c r="C14">
+        <v>55.7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F14" s="8">
+        <v>710466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>175</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F15" s="8">
+        <v>710481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>205</v>
+      </c>
+      <c r="C16">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F16" s="8">
+        <v>710450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
         <v>210</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <v>119</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="1">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>395</v>
-      </c>
-      <c r="C14">
-        <v>765</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>270</v>
-      </c>
-      <c r="C15">
-        <v>406</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>235</v>
-      </c>
-      <c r="C16">
-        <v>276</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>205</v>
-      </c>
-      <c r="C17">
-        <v>180</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
       </c>
       <c r="E17" s="1">
         <v>44066</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="8">
+        <v>710512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>750</v>
+        <v>210</v>
       </c>
       <c r="C18">
-        <v>3200</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F18" s="8">
+        <v>710415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="C19">
-        <v>416</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="8">
+        <v>710417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="C20">
-        <v>341</v>
+        <v>127.5</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F20" s="8">
+        <v>710444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
-        <v>340</v>
+        <v>225</v>
       </c>
       <c r="C21">
-        <v>478</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="8">
+        <v>710414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="C22">
-        <v>401</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F22" s="8">
+        <v>710475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
+        <v>230</v>
+      </c>
+      <c r="C23">
+        <v>151.71593458984901</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F23" s="8">
+        <v>710442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>230</v>
+      </c>
+      <c r="C24">
+        <v>142.6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F24" s="8">
+        <v>710471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>235</v>
+      </c>
+      <c r="C25">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F25" s="8">
+        <v>710454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>240</v>
+      </c>
+      <c r="C26">
+        <v>185</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F26" s="8">
+        <v>710457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <v>282</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F27" s="8">
+        <v>710468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>245</v>
+      </c>
+      <c r="C28">
+        <v>287</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F28" s="8">
+        <v>710433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>245</v>
+      </c>
+      <c r="C29">
+        <v>202</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F29" s="8">
+        <v>710487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>250</v>
+      </c>
+      <c r="C30">
+        <v>207</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44070</v>
+      </c>
+      <c r="F30" s="8">
+        <v>710499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>255</v>
+      </c>
+      <c r="C31">
         <v>225</v>
       </c>
-      <c r="C23">
-        <v>140</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>210</v>
-      </c>
-      <c r="C24">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>220</v>
-      </c>
-      <c r="C25">
-        <v>128</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>360</v>
-      </c>
-      <c r="C26">
-        <v>511</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>107</v>
-      </c>
-      <c r="C27">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>255</v>
-      </c>
-      <c r="C28">
-        <v>225</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D31" t="s">
         <v>20</v>
-      </c>
-      <c r="E28" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>340</v>
-      </c>
-      <c r="C29">
-        <v>476</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>335</v>
-      </c>
-      <c r="C30">
-        <v>443</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>360</v>
-      </c>
-      <c r="C31">
-        <v>535</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
       </c>
       <c r="E31" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="8">
+        <v>710425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="C32">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F32" s="8">
+        <v>710449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>260</v>
+      </c>
+      <c r="C33">
+        <v>217.467074928182</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F33" s="8">
+        <v>710441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>260</v>
+      </c>
+      <c r="C34">
+        <v>209</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F34" s="8">
+        <v>710480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>280</v>
+      </c>
+      <c r="C35">
+        <v>281</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F35" s="8">
+        <v>710461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>280</v>
+      </c>
+      <c r="C36">
+        <v>276</v>
+      </c>
+      <c r="D36" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33">
-        <v>90</v>
-      </c>
-      <c r="C33">
+      <c r="E36" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F36" s="8">
+        <v>710464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>285</v>
+      </c>
+      <c r="C37">
+        <v>287</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F37" s="8">
+        <v>710469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>290</v>
+      </c>
+      <c r="C38">
+        <v>304</v>
+      </c>
+      <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34">
-        <v>93</v>
-      </c>
-      <c r="C34">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>220</v>
-      </c>
-      <c r="C35">
-        <v>218</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>200</v>
-      </c>
-      <c r="C36">
-        <v>175</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37">
-        <v>175</v>
-      </c>
-      <c r="C37">
-        <v>101</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>180</v>
-      </c>
-      <c r="C38">
-        <v>124</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
       <c r="E38" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44066</v>
+      </c>
+      <c r="F38" s="8">
+        <v>710513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="C39">
-        <v>70</v>
+        <v>341</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -1841,203 +1961,239 @@
       <c r="E39" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="8">
+        <v>710411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="C40">
-        <v>180</v>
+        <v>364.51696625710201</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F40" s="8">
+        <v>710440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>383</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E41" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F41" s="8">
+        <v>717357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C42">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E42" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44070</v>
+      </c>
+      <c r="F42" s="8">
+        <v>710490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>230</v>
+        <v>325</v>
       </c>
       <c r="C43">
-        <v>264</v>
+        <v>401</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="8">
+        <v>710413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>230</v>
+        <v>325</v>
       </c>
       <c r="C44">
-        <v>242</v>
+        <v>433</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E44" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F44" s="8">
+        <v>710447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="C45">
-        <v>298</v>
+        <v>416</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="8">
+        <v>710429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="C46">
-        <v>88.2</v>
+        <v>429</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F46" s="8">
+        <v>710431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="C47">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F47" s="8">
+        <v>710462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="C48">
-        <v>280</v>
+        <v>443</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E48" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="8">
+        <v>710427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>110</v>
+        <v>335</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>442</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F49" s="8">
+        <v>710456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="C50">
-        <v>84</v>
+        <v>478</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E50" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="8">
+        <v>710430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="C51">
-        <v>310.5</v>
+        <v>476</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -2045,203 +2201,239 @@
       <c r="E51" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="8">
+        <v>710426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="C52">
-        <v>81.8</v>
+        <v>453</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F52" s="8">
+        <v>710443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B53">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="C53">
-        <v>9.8000000000000007</v>
+        <v>490</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F53" s="8">
+        <v>710455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <v>195</v>
+        <v>340</v>
       </c>
       <c r="C54">
-        <v>161</v>
+        <v>535</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E54" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F54" s="8">
+        <v>717363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="C55">
-        <v>295</v>
+        <v>473</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E55" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F55" s="8">
+        <v>710486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B56">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="C56">
-        <v>261</v>
+        <v>505</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E56" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44066</v>
+      </c>
+      <c r="F56" s="8">
+        <v>710514</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="C57">
-        <v>335</v>
+        <v>520</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E57" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F57" s="8">
+        <v>710445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="C58">
-        <v>244</v>
+        <v>533</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E58" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F58" s="8">
+        <v>710470</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B59">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="C59">
-        <v>233</v>
+        <v>544</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E59" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F59" s="8">
+        <v>710448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="C60">
-        <v>92</v>
+        <v>569</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E60" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F60" s="8">
+        <v>710437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B61">
-        <v>195</v>
+        <v>355</v>
       </c>
       <c r="C61">
-        <v>136</v>
+        <v>519</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E61" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F61" s="8">
+        <v>710474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>165</v>
+        <v>360</v>
       </c>
       <c r="C62">
-        <v>86</v>
+        <v>511</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E62" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="8">
+        <v>710421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="C63">
-        <v>66</v>
+        <v>535</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -2249,1232 +2441,1451 @@
       <c r="E63" s="1">
         <v>44067</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="8">
+        <v>710428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="C64">
-        <v>19.2</v>
+        <v>565.48983955622498</v>
       </c>
       <c r="D64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F64" s="8">
+        <v>710439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>360</v>
+      </c>
+      <c r="C65">
+        <v>524</v>
+      </c>
+      <c r="D65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44070</v>
+      </c>
+      <c r="F65" s="8">
+        <v>710493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>360</v>
+      </c>
+      <c r="C66">
+        <v>565</v>
+      </c>
+      <c r="D66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44070</v>
+      </c>
+      <c r="F66" s="8">
+        <v>710492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>365</v>
+      </c>
+      <c r="C67">
+        <v>577</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F67" s="8">
+        <v>710477</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>365</v>
+      </c>
+      <c r="C68">
+        <v>625</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F68" s="8">
+        <v>710485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>370</v>
+      </c>
+      <c r="C69">
+        <v>633</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F69" s="8">
+        <v>710479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>370</v>
+      </c>
+      <c r="C70">
+        <v>644</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="1">
+        <v>44070</v>
+      </c>
+      <c r="F70" s="8">
+        <v>710498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>375</v>
+      </c>
+      <c r="C71">
+        <v>693</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F71" s="8">
+        <v>710458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>380</v>
+      </c>
+      <c r="C72">
+        <v>673</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F72" s="8">
+        <v>710467</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>380</v>
+      </c>
+      <c r="C73">
+        <v>661</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44069</v>
+      </c>
+      <c r="F73" s="8">
+        <v>710465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>380</v>
+      </c>
+      <c r="C74">
+        <v>662.79629782034397</v>
+      </c>
+      <c r="D74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44070</v>
+      </c>
+      <c r="F74" s="8">
+        <v>710494</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>395</v>
+      </c>
+      <c r="C75">
+        <v>765</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="1">
+        <v>44066</v>
+      </c>
+      <c r="F75" s="8">
+        <v>710509</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>400</v>
+      </c>
+      <c r="C76">
+        <v>765</v>
+      </c>
+      <c r="D76" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65">
-        <v>95</v>
-      </c>
-      <c r="C65">
-        <v>16</v>
-      </c>
-      <c r="D65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66">
-        <v>105</v>
-      </c>
-      <c r="C66">
-        <v>20</v>
-      </c>
-      <c r="D66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67">
-        <v>85</v>
-      </c>
-      <c r="C67">
-        <v>9.5</v>
-      </c>
-      <c r="D67" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68">
-        <v>85</v>
-      </c>
-      <c r="C68">
-        <v>10.6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69">
-        <v>95</v>
-      </c>
-      <c r="C69">
-        <v>11.5</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70">
-        <v>80</v>
-      </c>
-      <c r="C70">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71">
-        <v>83</v>
-      </c>
-      <c r="C71">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72">
-        <v>220</v>
-      </c>
-      <c r="C72">
-        <v>218</v>
-      </c>
-      <c r="D72" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73">
-        <v>225</v>
-      </c>
-      <c r="C73">
-        <v>230</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74">
-        <v>225</v>
-      </c>
-      <c r="C74">
-        <v>256</v>
-      </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75">
-        <v>255</v>
-      </c>
-      <c r="C75">
-        <v>346</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76">
-        <v>210</v>
-      </c>
-      <c r="C76">
-        <v>190</v>
-      </c>
-      <c r="D76" t="s">
-        <v>20</v>
-      </c>
       <c r="E76" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F76" s="8">
+        <v>710478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B77">
-        <v>165</v>
+        <v>400</v>
       </c>
       <c r="C77">
-        <v>87</v>
+        <v>856</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E77" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44070</v>
+      </c>
+      <c r="F77" s="8">
+        <v>710491</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B78">
-        <v>170</v>
+        <v>405</v>
       </c>
       <c r="C78">
-        <v>92</v>
+        <v>852</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E78" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F78" s="8">
+        <v>710484</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B79">
-        <v>155</v>
+        <v>410</v>
       </c>
       <c r="C79">
-        <v>74</v>
+        <v>852</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F79" s="8">
+        <v>710446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B80">
-        <v>160</v>
+        <v>410</v>
       </c>
       <c r="C80">
-        <v>76</v>
+        <v>740</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E80" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44070</v>
+      </c>
+      <c r="F80" s="8">
+        <v>710495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B81">
-        <v>165</v>
+        <v>415</v>
       </c>
       <c r="C81">
-        <v>95</v>
+        <v>825</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E81" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F81" s="8">
+        <v>710435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B82">
-        <v>165</v>
+        <v>415</v>
       </c>
       <c r="C82">
-        <v>89</v>
+        <v>854</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E82" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44070</v>
+      </c>
+      <c r="F82" s="8">
+        <v>710488</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B83">
-        <v>100</v>
+        <v>425</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>920</v>
       </c>
       <c r="D83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E83" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F83" s="8">
+        <v>710452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B84">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="C84">
-        <v>1040</v>
+        <v>955</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
       </c>
       <c r="E84" s="1">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F84" s="8">
+        <v>710483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85">
-        <v>340</v>
+        <v>435</v>
       </c>
       <c r="C85">
-        <v>453</v>
+        <v>983</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E85" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="8">
+        <v>710453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86">
-        <v>220</v>
+        <v>435</v>
       </c>
       <c r="C86">
-        <v>127.5</v>
+        <v>1308</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E86" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F86" s="8">
+        <v>710473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="C87">
-        <v>520</v>
+        <v>1087</v>
       </c>
       <c r="D87" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E87" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44070</v>
+      </c>
+      <c r="F87" s="8">
+        <v>710489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88">
-        <v>410</v>
+        <v>530</v>
       </c>
       <c r="C88">
-        <v>852</v>
+        <v>1580</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E88" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F88" s="8">
+        <v>710472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
       <c r="B89">
-        <v>325</v>
+        <v>535</v>
       </c>
       <c r="C89">
-        <v>433</v>
+        <v>1790</v>
       </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E89" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44066</v>
+      </c>
+      <c r="F89" s="8">
+        <v>710502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B90">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="C90">
-        <v>544</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E90" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F90" s="8">
+        <v>711593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B91">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="C91">
-        <v>215</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E91" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F91" s="8">
+        <v>711743</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B92">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="C92">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E92" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F92" s="8">
+        <v>711594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B93">
-        <v>425</v>
+        <v>85</v>
       </c>
       <c r="C93">
-        <v>920</v>
+        <v>9.5</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E93" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F93" s="8">
+        <v>711590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B94">
-        <v>435</v>
+        <v>85</v>
       </c>
       <c r="C94">
-        <v>983</v>
+        <v>10.6</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E94" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F94" s="8">
+        <v>711591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B95">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="C95">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E95" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F95" s="8">
+        <v>711608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B96">
-        <v>340</v>
+        <v>93</v>
       </c>
       <c r="C96">
-        <v>490</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E96" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F96" s="8">
+        <v>711623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B97">
-        <v>335</v>
+        <v>95</v>
       </c>
       <c r="C97">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E97" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F97" s="8">
+        <v>711588</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B98">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="C98">
-        <v>185</v>
+        <v>11.5</v>
       </c>
       <c r="D98" t="s">
         <v>6</v>
       </c>
       <c r="E98" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F98" s="8">
+        <v>711592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B99">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="C99">
-        <v>693</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E99" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F99" s="8">
+        <v>711606</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B100">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="C100">
-        <v>281</v>
+        <v>19.2</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E100" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F100" s="8">
+        <v>711587</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B101">
-        <v>360</v>
+        <v>105</v>
       </c>
       <c r="C101">
-        <v>565.48983955622498</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E101" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F101" s="8">
+        <v>711589</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B102">
-        <v>355</v>
+        <v>110</v>
       </c>
       <c r="C102">
-        <v>569</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E102" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F102" s="8">
+        <v>711607</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B103">
-        <v>415</v>
+        <v>110</v>
       </c>
       <c r="C103">
-        <v>825</v>
+        <v>24.5</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E103" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="8">
+        <v>712024</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B104">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="C104">
-        <v>287</v>
+        <v>24.1</v>
       </c>
       <c r="D104" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E104" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F104" s="8">
+        <v>712072</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B105">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="C105">
-        <v>364.51696625710201</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F105" s="8">
+        <v>712078</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B106">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="C106">
-        <v>217.467074928182</v>
+        <v>62</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E106" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F106" s="8">
+        <v>711657</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B107">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="C107">
-        <v>429</v>
+        <v>66</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E107" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F107" s="8">
+        <v>711586</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B108">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="C108">
-        <v>151.71593458984901</v>
+        <v>70</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F108" s="8">
+        <v>711655</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B109">
-        <v>320</v>
+        <v>155</v>
       </c>
       <c r="C109">
-        <v>383</v>
+        <v>74</v>
       </c>
       <c r="D109" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E109" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F109" s="8">
+        <v>711602</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
       <c r="B110">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="C110">
-        <v>392.7</v>
+        <v>69</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E110" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F110" s="8">
+        <v>711730</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
       <c r="B111">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C111">
-        <v>168.1</v>
+        <v>79</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E111" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F111" s="8">
+        <v>711658</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>13</v>
       </c>
       <c r="B112">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C112">
-        <v>195.3</v>
+        <v>84</v>
       </c>
       <c r="D112" t="s">
         <v>6</v>
       </c>
       <c r="E112" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F112" s="8">
+        <v>711731</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
       <c r="B113">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="C113">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="D113" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E113" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F113" s="8">
+        <v>711603</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>13</v>
       </c>
       <c r="B114">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="C114">
-        <v>360</v>
+        <v>81.8</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E114" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F114" s="8">
+        <v>711742</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>13</v>
       </c>
       <c r="B115">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="C115">
-        <v>242.5</v>
+        <v>86</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E115" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F115" s="8">
+        <v>711585</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
       <c r="B116">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="C116">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E116" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F116" s="8">
+        <v>711600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>13</v>
       </c>
       <c r="B117">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C117">
-        <v>158.19999999999999</v>
+        <v>95</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E117" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F117" s="8">
+        <v>711604</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>13</v>
       </c>
       <c r="B118">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="C118">
-        <v>298.5</v>
+        <v>89</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E118" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F118" s="8">
+        <v>711605</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>13</v>
       </c>
       <c r="B119">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C119">
-        <v>132</v>
+        <v>88.2</v>
       </c>
       <c r="D119" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E119" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F119" s="8">
+        <v>711727</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>13</v>
       </c>
       <c r="B120">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="C120">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="D120" t="s">
         <v>6</v>
       </c>
       <c r="E120" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F120" s="8">
+        <v>711583</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>13</v>
       </c>
       <c r="B121">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="C121">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E121" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F121" s="8">
+        <v>711601</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>13</v>
       </c>
       <c r="B122">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="C122">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E122" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F122" s="8">
+        <v>711653</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>13</v>
       </c>
       <c r="B123">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C123">
-        <v>24.5</v>
+        <v>124</v>
       </c>
       <c r="D123" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E123" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F123" s="8">
+        <v>711654</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>13</v>
       </c>
       <c r="B124">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C124">
-        <v>124.47760295895399</v>
+        <v>128.5</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E124" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="8">
+        <v>712001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>13</v>
       </c>
       <c r="B125">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="C125">
-        <v>277.761254013263</v>
+        <v>132</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E125" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="8">
+        <v>712058</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>13</v>
       </c>
       <c r="B126">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C126">
-        <v>128.5</v>
+        <v>124.47760295895399</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E126" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="8">
+        <v>712012</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>13</v>
       </c>
       <c r="B127">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="C127">
-        <v>311</v>
+        <v>123</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E127" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="8">
+        <v>711998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>13</v>
       </c>
       <c r="B128">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C128">
-        <v>163</v>
+        <v>113.4</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E128" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="8">
+        <v>711794</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>13</v>
       </c>
       <c r="B129">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C129">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D129" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E129" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F129" s="8">
+        <v>712064</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>13</v>
       </c>
       <c r="B130">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C130">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E130" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F130" s="8">
+        <v>712073</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>13</v>
       </c>
       <c r="B131">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="C131">
-        <v>416</v>
+        <v>134.9</v>
       </c>
       <c r="D131" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E131" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44070</v>
+      </c>
+      <c r="F131" s="8">
+        <v>712113</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>13</v>
       </c>
       <c r="B132">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="C132">
-        <v>382</v>
+        <v>161</v>
       </c>
       <c r="D132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E132" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F132" s="8">
+        <v>711788</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>13</v>
       </c>
       <c r="B133">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="C133">
-        <v>424.5</v>
+        <v>136</v>
       </c>
       <c r="D133" t="s">
         <v>6</v>
       </c>
       <c r="E133" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F133" s="8">
+        <v>711584</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>13</v>
       </c>
       <c r="B134">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="C134">
-        <v>249.3</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="D134" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E134" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="8">
+        <v>712059</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>13</v>
       </c>
       <c r="B135">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="C135">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="D135" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E135" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F135" s="8">
+        <v>711652</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -3482,24 +3893,27 @@
         <v>200</v>
       </c>
       <c r="C136">
-        <v>156.6</v>
+        <v>180</v>
       </c>
       <c r="D136" t="s">
         <v>22</v>
       </c>
       <c r="E136" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F136" s="8">
+        <v>711656</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>13</v>
       </c>
       <c r="B137">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="C137">
-        <v>342</v>
+        <v>156.6</v>
       </c>
       <c r="D137" t="s">
         <v>22</v>
@@ -3507,50 +3921,59 @@
       <c r="E137" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="8">
+        <v>711799</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>13</v>
       </c>
       <c r="B138">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C138">
-        <v>333.8</v>
+        <v>173.6</v>
       </c>
       <c r="D138" t="s">
         <v>6</v>
       </c>
       <c r="E138" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44069</v>
+      </c>
+      <c r="F138" s="8">
+        <v>712074</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>13</v>
       </c>
       <c r="B139">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C139">
-        <v>450.5</v>
+        <v>180</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E139" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44066</v>
+      </c>
+      <c r="F139" s="8">
+        <v>712212</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>13</v>
       </c>
       <c r="B140">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C140">
-        <v>240.5</v>
+        <v>168.1</v>
       </c>
       <c r="D140" t="s">
         <v>22</v>
@@ -3558,50 +3981,59 @@
       <c r="E140" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="8">
+        <v>711912</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>13</v>
       </c>
       <c r="B141">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C141">
-        <v>113.4</v>
+        <v>173</v>
       </c>
       <c r="D141" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E141" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="8">
+        <v>711997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>13</v>
       </c>
       <c r="B142">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C142">
-        <v>261.8</v>
+        <v>190</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E142" s="1">
-        <v>44068</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F142" s="8">
+        <v>711599</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
       <c r="B143">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C143">
-        <v>231.3</v>
+        <v>205</v>
       </c>
       <c r="D143" t="s">
         <v>6</v>
@@ -3609,892 +4041,1051 @@
       <c r="E143" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="8">
+        <v>712057</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B144">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="C144">
-        <v>673</v>
+        <v>205</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E144" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F144" s="8">
+        <v>712056</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B145">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="C145">
-        <v>535</v>
+        <v>186</v>
       </c>
       <c r="D145" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E145" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F145" s="8">
+        <v>712055</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B146">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="C146">
-        <v>467</v>
+        <v>163</v>
       </c>
       <c r="D146" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E146" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F146" s="8">
+        <v>711999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B147">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="C147">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F147" s="8">
+        <v>711651</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148">
+        <v>220</v>
+      </c>
+      <c r="C148">
+        <v>218</v>
+      </c>
+      <c r="D148" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F148" s="8">
+        <v>711595</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149">
+        <v>220</v>
+      </c>
+      <c r="C149">
+        <v>195.3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F149" s="8">
+        <v>711791</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150">
+        <v>220</v>
+      </c>
+      <c r="C150">
+        <v>212</v>
+      </c>
+      <c r="D150" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F150" s="8">
+        <v>711856</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151">
+        <v>220</v>
+      </c>
+      <c r="C151">
+        <v>240.5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F151" s="8">
+        <v>711795</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152">
+        <v>225</v>
+      </c>
+      <c r="C152">
+        <v>230</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F152" s="8">
+        <v>711596</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153">
+        <v>225</v>
+      </c>
+      <c r="C153">
+        <v>256</v>
+      </c>
+      <c r="D153" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148">
-        <v>380</v>
-      </c>
-      <c r="C148">
-        <v>661</v>
-      </c>
-      <c r="D148" t="s">
-        <v>6</v>
-      </c>
-      <c r="E148" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149">
-        <v>165</v>
-      </c>
-      <c r="C149">
-        <v>55.7</v>
-      </c>
-      <c r="D149" t="s">
-        <v>6</v>
-      </c>
-      <c r="E149" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150">
-        <v>240</v>
-      </c>
-      <c r="C150">
-        <v>282</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="E153" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F153" s="8">
+        <v>711597</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154">
+        <v>225</v>
+      </c>
+      <c r="C154">
+        <v>242.5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F154" s="8">
+        <v>712060</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155">
+        <v>225</v>
+      </c>
+      <c r="C155">
+        <v>231.3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F155" s="8">
+        <v>711792</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156">
+        <v>225</v>
+      </c>
+      <c r="C156">
+        <v>232</v>
+      </c>
+      <c r="D156" t="s">
         <v>18</v>
-      </c>
-      <c r="E150" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151">
-        <v>285</v>
-      </c>
-      <c r="C151">
-        <v>287</v>
-      </c>
-      <c r="D151" t="s">
-        <v>48</v>
-      </c>
-      <c r="E151" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152">
-        <v>350</v>
-      </c>
-      <c r="C152">
-        <v>533</v>
-      </c>
-      <c r="D152" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153">
-        <v>230</v>
-      </c>
-      <c r="C153">
-        <v>142.6</v>
-      </c>
-      <c r="D153" t="s">
-        <v>38</v>
-      </c>
-      <c r="E153" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154">
-        <v>530</v>
-      </c>
-      <c r="C154">
-        <v>1580</v>
-      </c>
-      <c r="D154" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155">
-        <v>435</v>
-      </c>
-      <c r="C155">
-        <v>1308</v>
-      </c>
-      <c r="D155" t="s">
-        <v>49</v>
-      </c>
-      <c r="E155" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156">
-        <v>355</v>
-      </c>
-      <c r="C156">
-        <v>519</v>
-      </c>
-      <c r="D156" t="s">
-        <v>35</v>
       </c>
       <c r="E156" s="1">
         <v>44069</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="8">
+        <v>712077</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B157">
         <v>225</v>
       </c>
       <c r="C157">
-        <v>143</v>
+        <v>221.5</v>
       </c>
       <c r="D157" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E157" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44070</v>
+      </c>
+      <c r="F157" s="8">
+        <v>712112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B158">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="C158">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="D158" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E158" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F158" s="8">
+        <v>711724</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B159">
-        <v>365</v>
+        <v>230</v>
       </c>
       <c r="C159">
-        <v>577</v>
+        <v>242</v>
       </c>
       <c r="D159" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E159" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F159" s="8">
+        <v>711725</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B160">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="C160">
-        <v>765</v>
+        <v>280</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E160" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F160" s="8">
+        <v>711729</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B161">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="C161">
-        <v>633</v>
+        <v>261</v>
       </c>
       <c r="D161" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E161" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F161" s="8">
+        <v>711579</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B162">
+        <v>230</v>
+      </c>
+      <c r="C162">
+        <v>233</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F162" s="8">
+        <v>711582</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163">
+        <v>230</v>
+      </c>
+      <c r="C163">
+        <v>311</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F163" s="8">
+        <v>712000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164">
+        <v>230</v>
+      </c>
+      <c r="C164">
+        <v>249.3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F164" s="8">
+        <v>711801</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165">
+        <v>235</v>
+      </c>
+      <c r="C165">
+        <v>276</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="1">
+        <v>44066</v>
+      </c>
+      <c r="F165" s="8">
+        <v>712167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166">
+        <v>235</v>
+      </c>
+      <c r="C166">
+        <v>244</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F166" s="8">
+        <v>711581</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167">
+        <v>235</v>
+      </c>
+      <c r="C167">
+        <v>261.8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F167" s="8">
+        <v>711793</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168">
+        <v>240</v>
+      </c>
+      <c r="C168">
+        <v>298.5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F168" s="8">
+        <v>711789</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169">
+        <v>240</v>
+      </c>
+      <c r="C169">
+        <v>277.761254013263</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F169" s="8">
+        <v>712011</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170">
+        <v>245</v>
+      </c>
+      <c r="C170">
+        <v>298</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F170" s="8">
+        <v>711726</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171">
+        <v>245</v>
+      </c>
+      <c r="C171">
+        <v>295</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F171" s="8">
+        <v>711578</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172">
+        <v>245</v>
+      </c>
+      <c r="C172">
+        <v>280</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F172" s="8">
+        <v>711790</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173">
+        <v>245</v>
+      </c>
+      <c r="C173">
+        <v>286</v>
+      </c>
+      <c r="D173" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F173" s="8">
+        <v>711800</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174">
+        <v>250</v>
+      </c>
+      <c r="C174">
+        <v>310.5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F174" s="8">
+        <v>711741</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>250</v>
+      </c>
+      <c r="C175">
+        <v>316.5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="1">
+        <v>44070</v>
+      </c>
+      <c r="F175" s="8">
+        <v>712111</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176">
+        <v>255</v>
+      </c>
+      <c r="C176">
+        <v>346</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F176" s="8">
+        <v>711598</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177">
+        <v>255</v>
+      </c>
+      <c r="C177">
+        <v>342</v>
+      </c>
+      <c r="D177" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F177" s="8">
+        <v>711798</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178">
         <v>260</v>
       </c>
-      <c r="C162">
-        <v>209</v>
-      </c>
-      <c r="D162" t="s">
-        <v>34</v>
-      </c>
-      <c r="E162" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163">
-        <v>175</v>
-      </c>
-      <c r="C163">
-        <v>65</v>
-      </c>
-      <c r="D163" t="s">
-        <v>35</v>
-      </c>
-      <c r="E163" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164">
-        <v>155</v>
-      </c>
-      <c r="C164">
-        <v>49</v>
-      </c>
-      <c r="D164" t="s">
-        <v>51</v>
-      </c>
-      <c r="E164" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165">
-        <v>430</v>
-      </c>
-      <c r="C165">
-        <v>955</v>
-      </c>
-      <c r="D165" t="s">
-        <v>6</v>
-      </c>
-      <c r="E165" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166">
-        <v>405</v>
-      </c>
-      <c r="C166">
-        <v>852</v>
-      </c>
-      <c r="D166" t="s">
-        <v>52</v>
-      </c>
-      <c r="E166" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167">
-        <v>365</v>
-      </c>
-      <c r="C167">
-        <v>625</v>
-      </c>
-      <c r="D167" t="s">
-        <v>6</v>
-      </c>
-      <c r="E167" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168">
-        <v>340</v>
-      </c>
-      <c r="C168">
-        <v>473</v>
-      </c>
-      <c r="D168" t="s">
-        <v>38</v>
-      </c>
-      <c r="E168" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169">
-        <v>245</v>
-      </c>
-      <c r="C169">
-        <v>202</v>
-      </c>
-      <c r="D169" t="s">
-        <v>6</v>
-      </c>
-      <c r="E169" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>13</v>
-      </c>
-      <c r="B170">
-        <v>200</v>
-      </c>
-      <c r="C170">
-        <v>173.6</v>
-      </c>
-      <c r="D170" t="s">
-        <v>6</v>
-      </c>
-      <c r="E170" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>13</v>
-      </c>
-      <c r="B171">
-        <v>190</v>
-      </c>
-      <c r="C171">
-        <v>136</v>
-      </c>
-      <c r="D171" t="s">
-        <v>6</v>
-      </c>
-      <c r="E171" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>13</v>
-      </c>
-      <c r="B172">
-        <v>225</v>
-      </c>
-      <c r="C172">
-        <v>232</v>
-      </c>
-      <c r="D172" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>13</v>
-      </c>
-      <c r="B173">
-        <v>130</v>
-      </c>
-      <c r="C173">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="D173" t="s">
-        <v>6</v>
-      </c>
-      <c r="E173" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>13</v>
-      </c>
-      <c r="B174">
-        <v>190</v>
-      </c>
-      <c r="C174">
-        <v>139</v>
-      </c>
-      <c r="D174" t="s">
-        <v>6</v>
-      </c>
-      <c r="E174" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>13</v>
-      </c>
-      <c r="B175">
-        <v>115</v>
-      </c>
-      <c r="C175">
-        <v>24.1</v>
-      </c>
-      <c r="D175" t="s">
-        <v>6</v>
-      </c>
-      <c r="E175" s="1">
-        <v>44069</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>53</v>
-      </c>
-      <c r="B176">
-        <v>510</v>
-      </c>
-      <c r="C176">
-        <v>2275</v>
-      </c>
-      <c r="D176" t="s">
-        <v>6</v>
-      </c>
-      <c r="E176" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B177">
-        <v>320</v>
-      </c>
-      <c r="C177">
+      <c r="C178">
+        <v>335</v>
+      </c>
+      <c r="D178" t="s">
+        <v>26</v>
+      </c>
+      <c r="E178" s="1">
+        <v>44067</v>
+      </c>
+      <c r="F178" s="8">
+        <v>711580</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179">
+        <v>260</v>
+      </c>
+      <c r="C179">
+        <v>392.7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="1">
+        <v>44068</v>
+      </c>
+      <c r="F179" s="8">
+        <v>711910</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>260</v>
+      </c>
+      <c r="C180">
         <v>416</v>
       </c>
-      <c r="D177" t="s">
-        <v>54</v>
-      </c>
-      <c r="E177" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178">
-        <v>435</v>
-      </c>
-      <c r="C178">
-        <v>1087</v>
-      </c>
-      <c r="D178" t="s">
-        <v>55</v>
-      </c>
-      <c r="E178" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179">
-        <v>415</v>
-      </c>
-      <c r="C179">
-        <v>854</v>
-      </c>
-      <c r="D179" t="s">
-        <v>56</v>
-      </c>
-      <c r="E179" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180">
-        <v>250</v>
-      </c>
-      <c r="C180">
-        <v>207</v>
-      </c>
       <c r="D180" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E180" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F180" s="8">
+        <v>711996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B181">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="C181">
-        <v>644</v>
+        <v>382</v>
       </c>
       <c r="D181" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E181" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F181" s="8">
+        <v>711976</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B182">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="C182">
-        <v>740</v>
+        <v>333.8</v>
       </c>
       <c r="D182" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E182" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F182" s="8">
+        <v>711797</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B183">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="C183">
-        <v>662.79629782034397</v>
+        <v>424.5</v>
       </c>
       <c r="D183" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E183" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F183" s="8">
+        <v>711975</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B184">
+        <v>270</v>
+      </c>
+      <c r="C184">
+        <v>406</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" s="1">
+        <v>44066</v>
+      </c>
+      <c r="F184" s="8">
+        <v>712166</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185">
+        <v>270</v>
+      </c>
+      <c r="C185">
         <v>360</v>
       </c>
-      <c r="C184">
-        <v>524</v>
-      </c>
-      <c r="D184" t="s">
-        <v>61</v>
-      </c>
-      <c r="E184" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B185">
-        <v>360</v>
-      </c>
-      <c r="C185">
-        <v>565</v>
-      </c>
       <c r="D185" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E185" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F185" s="8">
+        <v>712061</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B186">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="C186">
-        <v>856</v>
+        <v>454</v>
       </c>
       <c r="D186" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E186" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F186" s="8">
+        <v>711728</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>13</v>
       </c>
       <c r="B187">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C187">
-        <v>316.5</v>
+        <v>450.5</v>
       </c>
       <c r="D187" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E187" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44068</v>
+      </c>
+      <c r="F187" s="8">
+        <v>711796</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B188">
-        <v>225</v>
+        <v>490</v>
       </c>
       <c r="C188">
-        <v>221.5</v>
+        <v>1040</v>
       </c>
       <c r="D188" t="s">
         <v>6</v>
       </c>
       <c r="E188" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44067</v>
+      </c>
+      <c r="F188" s="8">
+        <v>714057</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B189">
-        <v>190</v>
+        <v>680</v>
       </c>
       <c r="C189">
-        <v>134.9</v>
+        <v>2475</v>
       </c>
       <c r="D189" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E189" s="1">
         <v>44070</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F189" s="8">
+        <v>714059</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>16</v>
       </c>
       <c r="B190">
-        <v>680</v>
+        <v>750</v>
       </c>
       <c r="C190">
-        <v>2475</v>
+        <v>3200</v>
       </c>
       <c r="D190" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E190" s="1">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44066</v>
+      </c>
+      <c r="F190" s="8">
+        <v>714060</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
       <c r="B191">
-        <v>385</v>
+        <v>115</v>
       </c>
       <c r="C191">
-        <v>820</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
         <v>6</v>
       </c>
       <c r="E191" s="1">
-        <v>44431</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44433</v>
+      </c>
+      <c r="F191" s="8">
+        <v>848702</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5</v>
       </c>
       <c r="B192">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C192">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E192" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" s="8">
+        <v>848701</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>5</v>
       </c>
       <c r="B193">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C193">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D193" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E193" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="8">
+        <v>848711</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>5</v>
       </c>
       <c r="B194">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="C194">
-        <v>739</v>
+        <v>472.5</v>
       </c>
       <c r="D194" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E194" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" s="8">
+        <v>848703</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>5</v>
       </c>
       <c r="B195">
-        <v>135</v>
+        <v>385</v>
       </c>
       <c r="C195">
-        <v>36</v>
+        <v>820</v>
       </c>
       <c r="D195" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E195" s="1">
-        <v>44433</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44431</v>
+      </c>
+      <c r="F195" s="8">
+        <v>848717</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -4510,110 +5101,131 @@
       <c r="E196" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" s="8">
+        <v>848706</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>5</v>
       </c>
       <c r="B197">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C197">
-        <v>862.7</v>
+        <v>739</v>
       </c>
       <c r="D197" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E197" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" s="8">
+        <v>848700</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
       <c r="B198">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="C198">
-        <v>472.5</v>
+        <v>804.14370209033302</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E198" s="1">
-        <v>44433</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44434</v>
+      </c>
+      <c r="F198" s="8">
+        <v>850006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B199">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="C199">
-        <v>63</v>
+        <v>804.14370209033302</v>
       </c>
       <c r="D199" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E199" s="1">
-        <v>44433</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>44434</v>
+      </c>
+      <c r="F199" s="8">
+        <v>849993</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B200">
-        <v>260</v>
+        <v>405</v>
       </c>
       <c r="C200">
-        <v>333.5</v>
+        <v>862.7</v>
       </c>
       <c r="D200" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E200" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F200" s="8">
+        <v>848704</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>13</v>
       </c>
       <c r="B201">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="C201">
-        <v>416</v>
+        <v>40.5</v>
       </c>
       <c r="D201" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E201" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F201" s="8">
+        <v>849304</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>13</v>
       </c>
       <c r="B202">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C202">
-        <v>40.5</v>
+        <v>63</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E202" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F202" s="8">
+        <v>849301</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -4621,7 +5233,7 @@
         <v>260</v>
       </c>
       <c r="C203">
-        <v>375</v>
+        <v>333.5</v>
       </c>
       <c r="D203" t="s">
         <v>6</v>
@@ -4629,8 +5241,11 @@
       <c r="E203" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F203" s="8">
+        <v>849300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -4638,7 +5253,7 @@
         <v>260</v>
       </c>
       <c r="C204">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D204" t="s">
         <v>6</v>
@@ -4646,50 +5261,58 @@
       <c r="E204" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" s="8">
+        <v>849303</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B205">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="C205">
-        <v>804.14370209033302</v>
+        <v>375</v>
       </c>
       <c r="D205" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E205" s="1">
-        <v>44434</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44433</v>
+      </c>
+      <c r="F205" s="8">
+        <v>849403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B206">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="C206">
-        <v>804.14370209033302</v>
+        <v>420</v>
       </c>
       <c r="D206" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E206" s="1">
-        <v>44434</v>
+        <v>44433</v>
+      </c>
+      <c r="F206" s="8">
+        <v>849302</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E206" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="candat"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="E1:E208" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A191:F206">
+    <sortCondition ref="A2:A206"/>
+    <sortCondition ref="B2:B206"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
